--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H2">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I2">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J2">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N2">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O2">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P2">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q2">
-        <v>91.44757419097999</v>
+        <v>46.4333224458111</v>
       </c>
       <c r="R2">
-        <v>823.02816771882</v>
+        <v>417.8999020122999</v>
       </c>
       <c r="S2">
-        <v>0.160140565621782</v>
+        <v>0.1357283883876368</v>
       </c>
       <c r="T2">
-        <v>0.1820536237594518</v>
+        <v>0.1457297955050953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H3">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I3">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J3">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
         <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P3">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q3">
-        <v>81.09781590914267</v>
+        <v>55.63061673830943</v>
       </c>
       <c r="R3">
-        <v>729.880343182284</v>
+        <v>500.6755506447849</v>
       </c>
       <c r="S3">
-        <v>0.1420163435200477</v>
+        <v>0.162612829691712</v>
       </c>
       <c r="T3">
-        <v>0.1614493483928043</v>
+        <v>0.174595268528486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H4">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I4">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J4">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N4">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O4">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P4">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q4">
-        <v>84.14352269930133</v>
+        <v>70.31406758154665</v>
       </c>
       <c r="R4">
-        <v>757.291704293712</v>
+        <v>632.82660823392</v>
       </c>
       <c r="S4">
-        <v>0.1473499044418006</v>
+        <v>0.2055337540181483</v>
       </c>
       <c r="T4">
-        <v>0.1675127345784145</v>
+        <v>0.2206789036418531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H5">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I5">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J5">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N5">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O5">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P5">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q5">
-        <v>168.613274488512</v>
+        <v>46.32415895971082</v>
       </c>
       <c r="R5">
-        <v>1011.679646931072</v>
+        <v>277.9449537582649</v>
       </c>
       <c r="S5">
-        <v>0.2952710926102887</v>
+        <v>0.1354092946149165</v>
       </c>
       <c r="T5">
-        <v>0.2237832835271901</v>
+        <v>0.09692479246303569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H6">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I6">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J6">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N6">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O6">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P6">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q6">
-        <v>71.45874276506933</v>
+        <v>57.14551988464722</v>
       </c>
       <c r="R6">
-        <v>643.1286848856239</v>
+        <v>514.3096789618251</v>
       </c>
       <c r="S6">
-        <v>0.1251366543755554</v>
+        <v>0.1670410151366744</v>
       </c>
       <c r="T6">
-        <v>0.1422599033901827</v>
+        <v>0.179349753327274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>7.449742</v>
       </c>
       <c r="I7">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J7">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N7">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O7">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P7">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q7">
-        <v>11.10598845994333</v>
+        <v>8.220724077071111</v>
       </c>
       <c r="R7">
-        <v>99.95389613949</v>
+        <v>73.98651669363998</v>
       </c>
       <c r="S7">
-        <v>0.01944851232521524</v>
+        <v>0.02402984692000998</v>
       </c>
       <c r="T7">
-        <v>0.02210977669392096</v>
+        <v>0.02580053236667457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>7.449742</v>
       </c>
       <c r="I8">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J8">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
         <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P8">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q8">
-        <v>9.849046468226446</v>
+        <v>9.849046468226444</v>
       </c>
       <c r="R8">
         <v>88.641418214038</v>
       </c>
       <c r="S8">
-        <v>0.0172473888587038</v>
+        <v>0.02878956606750239</v>
       </c>
       <c r="T8">
-        <v>0.01960745942118949</v>
+        <v>0.03091098056594707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>7.449742</v>
       </c>
       <c r="I9">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J9">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N9">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O9">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P9">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q9">
-        <v>10.21893691926489</v>
+        <v>12.44865794385067</v>
       </c>
       <c r="R9">
-        <v>91.97043227338399</v>
+        <v>112.037921494656</v>
       </c>
       <c r="S9">
-        <v>0.01789513120257054</v>
+        <v>0.03638844242256522</v>
       </c>
       <c r="T9">
-        <v>0.02034383649407863</v>
+        <v>0.03906979472742633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>7.449742</v>
       </c>
       <c r="I10">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J10">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N10">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O10">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P10">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q10">
-        <v>20.477493221984</v>
+        <v>8.201397376950332</v>
       </c>
       <c r="R10">
-        <v>122.864959331904</v>
+        <v>49.20838426170199</v>
       </c>
       <c r="S10">
-        <v>0.03585964281825837</v>
+        <v>0.0239733533993642</v>
       </c>
       <c r="T10">
-        <v>0.02717769811138788</v>
+        <v>0.01715991734160042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>7.449742</v>
       </c>
       <c r="I11">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J11">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N11">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O11">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P11">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q11">
-        <v>8.678414704074221</v>
+        <v>10.11725042421222</v>
       </c>
       <c r="R11">
-        <v>78.105732336668</v>
+        <v>91.05525381791</v>
       </c>
       <c r="S11">
-        <v>0.01519740957270703</v>
+        <v>0.02957354810427398</v>
       </c>
       <c r="T11">
-        <v>0.01727696835417928</v>
+        <v>0.03175273182561794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H12">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I12">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J12">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N12">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O12">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P12">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q12">
-        <v>2.5689152750875</v>
+        <v>0.6169640872044444</v>
       </c>
       <c r="R12">
-        <v>15.413491650525</v>
+        <v>5.552676784839999</v>
       </c>
       <c r="S12">
-        <v>0.004498616270867966</v>
+        <v>0.001803436343523228</v>
       </c>
       <c r="T12">
-        <v>0.003409460477569952</v>
+        <v>0.001936326016024781</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H13">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I13">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J13">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N13">
         <v>11.898589</v>
       </c>
       <c r="O13">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P13">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q13">
-        <v>2.278173258375834</v>
+        <v>0.7391694341197776</v>
       </c>
       <c r="R13">
-        <v>13.669039550255</v>
+        <v>6.652524907078</v>
       </c>
       <c r="S13">
-        <v>0.003989476565215541</v>
+        <v>0.002160652539037288</v>
       </c>
       <c r="T13">
-        <v>0.003023588111610493</v>
+        <v>0.002319864373341001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H14">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I14">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J14">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N14">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O14">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P14">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q14">
-        <v>2.363732255056667</v>
+        <v>0.9342698785706666</v>
       </c>
       <c r="R14">
-        <v>14.18239353034</v>
+        <v>8.408428907135999</v>
       </c>
       <c r="S14">
-        <v>0.004139305210138221</v>
+        <v>0.002730947049621458</v>
       </c>
       <c r="T14">
-        <v>0.003137141882928974</v>
+        <v>0.00293218213082997</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H15">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I15">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J15">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N15">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O15">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P15">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q15">
-        <v>4.736628830759999</v>
+        <v>0.6155136213103333</v>
       </c>
       <c r="R15">
-        <v>18.94651532304</v>
+        <v>3.693081727862</v>
       </c>
       <c r="S15">
-        <v>0.008294658735443683</v>
+        <v>0.001799196513421717</v>
       </c>
       <c r="T15">
-        <v>0.004190964425596462</v>
+        <v>0.00128784917726325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1405,19 +1405,19 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H16">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I16">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J16">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N16">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O16">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P16">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q16">
-        <v>2.007395575571667</v>
+        <v>0.759298100078889</v>
       </c>
       <c r="R16">
-        <v>12.04437345343</v>
+        <v>6.83368290071</v>
       </c>
       <c r="S16">
-        <v>0.003515297871405072</v>
+        <v>0.002219490271232989</v>
       </c>
       <c r="T16">
-        <v>0.002664212379494402</v>
+        <v>0.002383037676897622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.398791</v>
+      </c>
+      <c r="I17">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J17">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.310473333333333</v>
+      </c>
+      <c r="N17">
+        <v>9.931419999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1683295705132556</v>
+      </c>
+      <c r="P17">
+        <v>0.1783110568845311</v>
+      </c>
+      <c r="Q17">
+        <v>2.315330152203333</v>
+      </c>
+      <c r="R17">
+        <v>13.89198091322</v>
+      </c>
+      <c r="S17">
+        <v>0.006767898862085631</v>
+      </c>
+      <c r="T17">
+        <v>0.004844402996736409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.398791</v>
+      </c>
+      <c r="I18">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J18">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.966196333333333</v>
+      </c>
+      <c r="N18">
+        <v>11.898589</v>
+      </c>
+      <c r="O18">
+        <v>0.2016715007605908</v>
+      </c>
+      <c r="P18">
+        <v>0.2136300730433972</v>
+      </c>
+      <c r="Q18">
+        <v>2.773939867649833</v>
+      </c>
+      <c r="R18">
+        <v>16.643639205899</v>
+      </c>
+      <c r="S18">
+        <v>0.008108452462339181</v>
+      </c>
+      <c r="T18">
+        <v>0.005803959575623111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.398791</v>
+      </c>
+      <c r="I19">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J19">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.013056</v>
+      </c>
+      <c r="N19">
+        <v>15.039168</v>
+      </c>
+      <c r="O19">
+        <v>0.2549017854764673</v>
+      </c>
+      <c r="P19">
+        <v>0.2700167690767302</v>
+      </c>
+      <c r="Q19">
+        <v>3.506108807648</v>
+      </c>
+      <c r="R19">
+        <v>21.036652845888</v>
+      </c>
+      <c r="S19">
+        <v>0.01024864198613236</v>
+      </c>
+      <c r="T19">
+        <v>0.007335888576620696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.398791</v>
+      </c>
+      <c r="I20">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J20">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.3026905</v>
+      </c>
+      <c r="N20">
+        <v>6.605381</v>
+      </c>
+      <c r="O20">
+        <v>0.1679338322424817</v>
+      </c>
+      <c r="P20">
+        <v>0.1185945682727144</v>
+      </c>
+      <c r="Q20">
+        <v>2.30988687359275</v>
+      </c>
+      <c r="R20">
+        <v>9.239547494370999</v>
+      </c>
+      <c r="S20">
+        <v>0.006751987714779262</v>
+      </c>
+      <c r="T20">
+        <v>0.003222009290814983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.398791</v>
+      </c>
+      <c r="I21">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J21">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.074201666666667</v>
+      </c>
+      <c r="N21">
+        <v>12.222605</v>
+      </c>
+      <c r="O21">
+        <v>0.2071633110072045</v>
+      </c>
+      <c r="P21">
+        <v>0.2194475327226272</v>
+      </c>
+      <c r="Q21">
+        <v>2.849478311759167</v>
+      </c>
+      <c r="R21">
+        <v>17.096869870555</v>
+      </c>
+      <c r="S21">
+        <v>0.008329257495023083</v>
+      </c>
+      <c r="T21">
+        <v>0.005962009892837624</v>
       </c>
     </row>
   </sheetData>
